--- a/CLEAR FIELD To-Do List.xlsx
+++ b/CLEAR FIELD To-Do List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>How/when to remote downed pilots?</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Redfor Track Explination</t>
+  </si>
+  <si>
+    <t>Phase SAM Explination</t>
+  </si>
+  <si>
+    <t>Naval patrols</t>
+  </si>
+  <si>
+    <t>Forward deployed spawns after capture</t>
   </si>
 </sst>
 </file>
@@ -796,15 +811,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:F43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:F43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:F42" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:F42">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="In Progress"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:F43">
+  <sortState ref="B10:F43">
     <sortCondition ref="C3:C43"/>
   </sortState>
   <tableColumns count="5">
@@ -1124,10 +1139,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F43"/>
+  <dimension ref="B1:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1265,29 +1280,33 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,102 +1325,140 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
@@ -1545,32 +1602,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E5:E7 F4 E9 E12 E14:E43">
-    <cfRule type="dataBar" priority="71">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{188CB613-9332-4DC6-9DE8-E9F63BEC4859}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E8">
     <cfRule type="dataBar" priority="4">
       <dataBar>
@@ -1627,6 +1663,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7 F4 E9 E12 E14:E42">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{188CB613-9332-4DC6-9DE8-E9F63BEC4859}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2"/>
@@ -1636,14 +1686,14 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="E3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="F3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="F1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D43">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="F4 E4:E42">
+      <formula1>"0%,25%,50%,75%,100%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D42">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C43">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C42">
       <formula1>"3-Low, 2-Normal, 1-High"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="E4:E43 F4">
-      <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -1659,18 +1709,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{188CB613-9332-4DC6-9DE8-E9F63BEC4859}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E5:E7 F4 E9 E12 E14:E43</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D53A291-3313-4D46-B892-BE770FC439C0}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
@@ -1719,6 +1757,18 @@
           </x14:cfRule>
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{188CB613-9332-4DC6-9DE8-E9F63BEC4859}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E7 F4 E9 E12 E14:E42</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
